--- a/Aerodromos2.xlsx
+++ b/Aerodromos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\Dados Abertos ANAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421392C4-94DD-4A24-B2E3-0F52D451C12E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DE1C7-B8EB-419B-9590-BE2CE0BAFFE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19039,7 +19039,7 @@
     <t>marker-symbol</t>
   </si>
   <si>
-    <t>aviation</t>
+    <t>airport</t>
   </si>
 </sst>
 </file>
